--- a/output/fit_clients/fit_round_86.xlsx
+++ b/output/fit_clients/fit_round_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8526422637.006963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003306338538955841</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.785561046685978</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9455199890896266</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.785561046685978</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6742995681.777781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004163567456728757</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9148625292970111</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.320299740957822</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.061058214597708</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.320299740957822</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6336758658.796682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003017802187284711</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.637691732054526</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9422314665765803</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.637691732054526</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4500149532.069488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005005598878567325</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8293992820566047</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.466715438469143</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9379183683400377</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.466715438469143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7742258439.010423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001794049363185117</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.243127136523187</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8685532971283322</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.243127136523187</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8426531941.676685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0012526122155664</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.431926453075312</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9179561575336885</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.431926453075312</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6266327777.441287</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002986767031958297</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.150346844875206</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9619739364687386</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.150346844875206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6703099586.219501</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005196433455635353</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.733793762760752</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8990700002405121</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.733793762760752</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3492376803.929016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004904838620071465</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.433845998107852</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9400718808927543</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.433845998107852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5075004547.525873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001234405483255589</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6258123695014834</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.291087815260718</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7251712666227171</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.291087815260718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8062411069.055456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002112387203812856</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.772788843579978</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9827890116298537</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.772788843579978</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4238457652.796447</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004639888363076015</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4498221290586596</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.314314153955265</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7679720948447349</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.314314153955265</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6994233768.580263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003004412111844397</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8103716679939269</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.671389409604556</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9736443706232408</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.671389409604556</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5808361005.3348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004097850292181693</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.126348118894456</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9935167203571923</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.126348118894456</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6486893724.612745</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003768074307932619</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.934749570204313</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9227529903112005</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.934749570204313</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6267638928.163742</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002333866731987813</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.784976790196532</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9447564316899301</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.784976790196532</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6514189445.346361</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009295092599891422</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.632709000632357</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9201676491356487</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.632709000632357</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4088722519.718973</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002198756442392299</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9793209656539383</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.469051083506447</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.110546857973684</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.469051083506447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5207152289.466978</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001331202444935521</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.705360385758065</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8193713897723596</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.705360385758065</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5785320338.570419</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004657840374559308</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.767055335603115</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.87594486087228</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.767055335603115</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4399659004.668434</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004595372808849077</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.44975617455508</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7952488655040277</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.44975617455508</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7394858621.919942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001982171408504397</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.135293076594487</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.080504131701616</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.135293076594487</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6631712289.117423</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00308226381774428</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6030837899849647</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.708186507194938</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.8981957410507373</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.708186507194938</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6614549596.151093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003008903204004118</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9391440941577887</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.035617451245979</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.115301788942418</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.035617451245979</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4565979204.159501</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001375775297831743</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9672420557882683</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.125480797721436</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.002328891861028</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.125480797721436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6297653636.317452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003328097007457715</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.553085115759605</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9331173922756177</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.553085115759605</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6814421277.108464</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004764024161711306</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9972346520679055</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.707326756160976</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.119650859082456</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.707326756160976</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6384983762.74272</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001369660269400225</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.873397478404392</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9834781338872369</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.873397478404392</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6327414998.250658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00275851893504515</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8535015345677862</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.163985567252923</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9825999232046905</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.163985567252923</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5877616697.746161</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.00344813715031089</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.475434967674403</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9588339863987967</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.475434967674403</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4371813257.522295</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001425710458531209</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.633045608373569</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9097285419391716</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.633045608373569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6645720832.259912</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.00207953139014285</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.069360990457048</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8577394257128462</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.069360990457048</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5130322936.280543</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004887554553414994</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.748325511709874</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7550096394422183</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.748325511709874</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5735748280.226586</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001792603506351976</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.595147134488767</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9272192707196171</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.595147134488767</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>4961742328.699358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002421746614202969</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.597831607251171</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.011979304313446</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.597831607251171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5132943674.716264</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005725795625919977</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.519309502319824</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.000095437046847</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.519309502319824</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4720390375.449656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004964515185588318</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.447212176453534</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9040403439275562</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.447212176453534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4229265741.89155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002613339736173626</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.060244193555777</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8723941116992728</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.060244193555777</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4718100034.163071</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004621164904785818</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.653252683235887</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9733587078187786</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.653252683235887</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5408339538.544811</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001397892951272621</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.996266557191098</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9378366818063248</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.996266557191098</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5994866404.766523</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003817090073510562</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.426816595294868</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9751085858739741</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.426816595294868</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6059675640.466615</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004067027925091469</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.720872822568137</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9205477096633561</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.720872822568137</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5531675517.990454</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001910432525583399</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.365471599131886</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9183611808280816</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.365471599131886</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3923827202.735302</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001551475050263859</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.963333809009133</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9605873336582136</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.963333809009133</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10163726904.36624</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004122659387874628</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6386466552084468</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.37108273804165</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7546776050720402</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.37108273804165</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7374654841.254808</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002311334299836982</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.518382962987529</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8990945630909937</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.518382962987529</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8035238174.909307</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003302408739903428</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.023304015191505</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9487272836738233</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.023304015191505</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5002984422.115242</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005604292057536787</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.478077871040813</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8669408843456405</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.478077871040813</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7954137635.760039</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002774442966122006</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.314645630521606</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.015988239637817</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.314645630521606</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4028568956.223621</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004808283826413007</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.413729866580128</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9440858291808922</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.413729866580128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8131832452.769365</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001461221213848458</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.53385374855568</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8521665126002845</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.53385374855568</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4902444900.635463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003030432095890696</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.616276267133928</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.921662990181884</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.616276267133928</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5284929304.439462</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003899196347941454</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.322162056062601</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8461436194416609</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.322162056062601</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5830548864.461982</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003810162353964966</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9960529377242212</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.337046277941448</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.109857279557637</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.337046277941448</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5786974980.291224</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001978786733607235</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.564742038218515</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9029032958983441</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.564742038218515</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6816184144.563963</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003152567248799684</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.486524255214074</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8231508898971576</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.486524255214074</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5554916099.439977</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001810844577292205</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7284670015868613</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.254032784443835</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8483076830108226</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.254032784443835</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5317939127.667334</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003083469154987391</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.491359760816883</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8879891888895918</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.491359760816883</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>6077266638.510758</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00413150164966753</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.224034024131269</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8131327701853505</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.224034024131269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6825179189.624022</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004832862139610248</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.789503952143978</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9150233228642723</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.789503952143978</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4153313753.469777</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004170639280014711</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>17</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.110307611473155</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8704631376551076</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.110307611473155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7883275717.182912</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00505256026226559</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.119741290291036</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8803014523435199</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.119741290291036</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4360857611.837939</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004361735720822794</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.639981002670392</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8906679393563189</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.639981002670392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5136935380.467257</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004965575459369334</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.01755295737674874</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.695905334655352</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.4748972564279379</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.695905334655352</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4415653962.068101</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003595568794676247</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.637523697983342</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9070573881027122</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.637523697983342</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6933139278.483312</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005091310142465368</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.856249865136281</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.87982871037808</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.856249865136281</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8734267358.197155</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002108996172885359</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.212716139101262</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7207071279892887</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.212716139101262</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5252855690.900641</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001216664528901694</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.048153715918169</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.98067370206606</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.048153715918169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7538294899.673285</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00322594046345664</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.682439951601522</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.894487863816066</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.682439951601522</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4763174649.091311</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003100398126377406</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.633628182800577</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7943408736410867</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.633628182800577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6846261449.383618</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002345923992211923</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.525941189624685</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.047240208963062</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.525941189624685</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6166569382.136751</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001282275286260956</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.847126795290018</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9609284264646925</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.847126795290018</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4721400013.416586</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003344993194316234</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8400045990856537</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.399096748312999</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9653798621079671</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.399096748312999</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7230040428.149773</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002902021586374453</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.612142150738826</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8704631376551076</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.612142150738826</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5263099616.910023</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002672263853467826</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.491368034783881</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9205716994421242</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.491368034783881</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6195653605.0208</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004250032637457087</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.139037241828849</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9917770542937069</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.139037241828849</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7542733331.616674</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004291241506740384</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.637887681059995</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9261106814464765</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.637887681059995</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5966406279.41429</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001867424156160617</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>14</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4411030402933697</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.691326087927948</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.7116209819887537</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.691326087927948</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7615670095.387936</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002797544069137506</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.591062960805029</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9541954052770579</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.591062960805029</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7170744872.377942</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005022476608795118</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.333373824113124</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9869165274246902</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.333373824113124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8262936140.545991</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005053323103749756</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.425069250473406</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8822108926494269</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.425069250473406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8510979190.549773</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003075717786540398</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.130105906094944</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.821955681243546</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.130105906094944</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5498484175.045663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004527763103576208</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.375396114044749</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9523839158900362</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.375396114044749</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3940216087.984285</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003488678979339737</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.185915055900213</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8957095647366513</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.185915055900213</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8254574142.433571</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002462158509162474</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.66576950067274</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9789788893842776</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.66576950067274</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5266331238.44282</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00140545702301068</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3717050924751125</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.102723435846907</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.5893932520826531</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.102723435846907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7235556383.957295</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003564349761479376</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.534619740259485</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8473307727086782</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.534619740259485</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7218132905.615886</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003579956666176813</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.873696833217607</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9559341585672764</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.873696833217607</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6146575885.94896</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002449968410642988</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>15</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.609969183752641</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9476671594657378</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.609969183752641</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5728045446.310154</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00407389098984808</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.733021757358719</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8113830173842044</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.733021757358719</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3480639291.151655</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003674484580573243</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.939352242914594</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.052756284331008</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.939352242914594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5752124526.708541</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001162765417386526</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.546312465221519</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9264883040491557</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.546312465221519</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7123922509.847654</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00125188045937406</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.733272354679626</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-0.4176345347922784</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.733272354679626</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7782419825.528696</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002791595014700571</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.702177213338377</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9209036328355773</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.702177213338377</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8240168450.383722</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002241524542874183</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.250831060517457</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9097528170146446</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.250831060517457</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8051812002.396758</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004864959762097613</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.742351764837604</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8899069500477529</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.742351764837604</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6099892199.552837</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004530664587139482</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.345725690062467</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8537809614605587</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.345725690062467</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3479085558.596373</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005694238685040038</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.342470139661895</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8860922003231981</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.342470139661895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5875242317.741828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00304083225900344</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.612330705079304</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8272826287644871</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.612330705079304</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8022293968.564792</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001303083600678918</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.7001663676939375</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.630648227362518</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8751963030554522</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.630648227362518</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_86.xlsx
+++ b/output/fit_clients/fit_round_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8526422637.006963</v>
+        <v>2502527900.214959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003306338538955841</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.07866272330021222</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0301608716630887</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1251264013.24371</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6742995681.777781</v>
+        <v>2449040777.508359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004163567456728757</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1678434427021278</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03553840329081165</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>21</v>
+      <c r="J3" t="n">
+        <v>1224520498.264513</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6336758658.796682</v>
+        <v>5035927191.873987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003017802187284711</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1178487121743167</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02949631520055984</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>18</v>
+      <c r="I4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2517963683.416657</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4500149532.069488</v>
+        <v>3493435924.609773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005005598878567325</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08126750672685502</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03331773305334099</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1746717999.455825</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7742258439.010423</v>
+        <v>1978889725.723046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001794049363185117</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
+        <v>0.0959135226596235</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03540847969345001</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>989444894.6343555</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8426531941.676685</v>
+        <v>2589942212.787597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0012526122155664</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>27</v>
+        <v>0.1003482564862565</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04190662429776034</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1294971110.664496</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6266327777.441287</v>
+        <v>2720522214.358825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002986767031958297</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.1552060333716545</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0293934559147755</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1360261136.036185</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6703099586.219501</v>
+        <v>2271977381.29109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005196433455635353</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26</v>
+        <v>0.1987414671255509</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02485114777540291</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1135988679.41103</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3492376803.929016</v>
+        <v>4559041331.844928</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004904838620071465</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1372471668668026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03617128857632859</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2279520731.004994</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5075004547.525873</v>
+        <v>3617292711.924172</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001234405483255589</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1699929421422579</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04087933717462047</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1808646341.850587</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8062411069.055456</v>
+        <v>2360116981.078798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002112387203812856</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24</v>
+        <v>0.1915842610913797</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04713060807203523</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1180058449.879493</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4238457652.796447</v>
+        <v>3460463758.729515</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004639888363076015</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18</v>
+        <v>0.0934842822348966</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02195989282588783</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1730231961.601288</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6994233768.580263</v>
+        <v>3668986084.824564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003004412111844397</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20</v>
+        <v>0.1460365950427797</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03702844807131296</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1834493028.344563</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5808361005.3348</v>
+        <v>1177649349.947649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004097850292181693</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>24</v>
+        <v>0.09513237369792127</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03566055001250158</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>588824687.3280145</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6486893724.612745</v>
+        <v>2244937542.563773</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003768074307932619</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>27</v>
+        <v>0.1162522581721349</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04535208706200418</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1122468824.805515</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6267638928.163742</v>
+        <v>5284860985.265807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002333866731987813</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1384044276629732</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03628064112345249</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2642430463.660267</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6514189445.346361</v>
+        <v>3304132647.336335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009295092599891422</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.166418693172662</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02913838170515545</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>24</v>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1652066331.879404</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4088722519.718973</v>
+        <v>1258157940.141511</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002198756442392299</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1496070502687536</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02550604186612868</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>629079062.1026305</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5207152289.466978</v>
+        <v>2652007359.39578</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001331202444935521</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1031172388243746</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02635217199494549</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1326003636.490829</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5785320338.570419</v>
+        <v>1978230617.496548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004657840374559308</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16</v>
+        <v>0.1007600446484592</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04260502837280494</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>989115346.6937442</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2820805554.263493</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1340224068090728</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04997408425861914</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4399659004.668434</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004595372808849077</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1410402849.317811</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7394858621.919942</v>
+        <v>1483055769.45453</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001982171408504397</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1597687958355997</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0410069115418718</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>741527873.4493452</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6631712289.117423</v>
+        <v>3060069867.807237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00308226381774428</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.09287988736256544</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02895024773853983</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1530034965.00403</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6614549596.151093</v>
+        <v>1370201119.955015</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003008903204004118</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19</v>
+        <v>0.08624671918274082</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02605871918293399</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>685100538.7115194</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4565979204.159501</v>
+        <v>932920132.1178544</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001375775297831743</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1230961305836265</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0255436168333358</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>466460021.603724</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6297653636.317452</v>
+        <v>4098083136.117475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003328097007457715</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1236245431172497</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01894866493731568</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2049041573.257254</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6814421277.108464</v>
+        <v>2890283809.603559</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004764024161711306</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>22</v>
+        <v>0.1015197907960789</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04807431914648249</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1445141906.424289</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6384983762.74272</v>
+        <v>5642237565.990355</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001369660269400225</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21</v>
+        <v>0.09878273619494289</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02899995868077679</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2821118685.934906</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6327414998.250658</v>
+        <v>1663200137.879752</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00275851893504515</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>27</v>
+        <v>0.1374967746613897</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03654942740321289</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>831600067.9383646</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5877616697.746161</v>
+        <v>1264344881.825131</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00344813715031089</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17</v>
+        <v>0.1041898782274928</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03675533131665695</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>632172377.154772</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4371813257.522295</v>
+        <v>1209305066.916406</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001425710458531209</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09515424143451766</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0353659376816737</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>604652541.5153477</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6645720832.259912</v>
+        <v>2226840659.661641</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00207953139014285</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>19</v>
+        <v>0.1843189251265613</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04817331988725831</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1113420391.223502</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5130322936.280543</v>
+        <v>1498441852.659205</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004887554553414994</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>27</v>
+        <v>0.0798276113712937</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0247939188712933</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>749220882.3610244</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5735748280.226586</v>
+        <v>1125982392.372769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001792603506351976</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22</v>
+        <v>0.09096004133944163</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04190379686234361</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>562991187.0590718</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>4961742328.699358</v>
+        <v>1996270746.944746</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002421746614202969</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.1488722142211001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02447032696140832</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>998135435.7168366</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5132943674.716264</v>
+        <v>2601133670.544529</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005725795625919977</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>21</v>
+        <v>0.0801865215489824</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02697530228730068</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>22</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1300566945.159096</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4720390375.449656</v>
+        <v>1989452471.595758</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004964515185588318</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1029248625805805</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02677024801852868</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>994726215.8398961</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4229265741.89155</v>
+        <v>1950703656.266967</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002613339736173626</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1200361990684732</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0234747672341082</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>975351830.0635949</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4718100034.163071</v>
+        <v>1627548748.167294</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004621164904785818</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1190717751614591</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0510182998876719</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>813774308.272711</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5408339538.544811</v>
+        <v>1952736094.781814</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001397892951272621</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>25</v>
+        <v>0.1158673870794902</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04405259266876373</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>976368126.1390321</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>501</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3307307053.415186</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08866446311450563</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03137417932751323</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>514</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5994866404.766523</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.003817090073510562</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+      <c r="I42" t="n">
+        <v>29</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1653653508.219079</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6059675640.466615</v>
+        <v>1980943038.269979</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004067027925091469</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+        <v>0.1543352358729987</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01802925547437005</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>990471619.9067303</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5531675517.990454</v>
+        <v>2289866165.234262</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001910432525583399</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>23</v>
+        <v>0.09101576834648858</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02265458892574503</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1144933246.718682</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3923827202.735302</v>
+        <v>1999169486.339294</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001551475050263859</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1315654125489005</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05602039783346726</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>999584733.8660918</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10163726904.36624</v>
+        <v>4092880283.032765</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004122659387874628</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
+        <v>0.1579650137652487</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0374346995053346</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2046440116.292197</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7374654841.254808</v>
+        <v>3623456259.559952</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002311334299836982</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1735708627460596</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0528384020921673</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1811728107.528283</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8035238174.909307</v>
+        <v>3281212135.545049</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003302408739903428</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+        <v>0.08266489560871254</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02685495493662558</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1640606143.836114</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5002984422.115242</v>
+        <v>1741067315.40675</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005604292057536787</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.162203425608471</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03218443359857612</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>870533652.1657369</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7954137635.760039</v>
+        <v>2665706853.816781</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002774442966122006</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.1233276762016905</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05054957662320658</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1332853510.462551</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4028568956.223621</v>
+        <v>1252984907.609866</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004808283826413007</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1498944002775451</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0533798369466633</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>626492496.7040085</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8131832452.769365</v>
+        <v>4496584868.900558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001461221213848458</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21</v>
+        <v>0.1191499589644601</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03893835665076134</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2248292461.622512</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4902444900.635463</v>
+        <v>3231442974.496732</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003030432095890696</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.1692634945040941</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03261018599717317</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1615721503.637927</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5284929304.439462</v>
+        <v>3654589010.422417</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003899196347941454</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1036457884143731</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05296911155541137</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1827294542.086781</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5830548864.461982</v>
+        <v>3571522372.17316</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003810162353964966</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>27</v>
+        <v>0.1669929254390551</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02272039578486729</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1785761141.984983</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5786974980.291224</v>
+        <v>1344403422.370117</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001978786733607235</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1639822062531125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05832061648801053</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>672201776.4120897</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6816184144.563963</v>
+        <v>2985416765.583037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003152567248799684</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1411031244386216</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02655376486363065</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1492708385.900038</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5554916099.439977</v>
+        <v>1393766513.844481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001810844577292205</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1865118175713115</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02725298578828232</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>696883297.6575296</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5317939127.667334</v>
+        <v>3742795756.973632</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003083469154987391</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1003189395088328</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03693135016254716</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1871397866.759062</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3104512446.789601</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1776981587355216</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0276059596206724</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6077266638.510758</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.00413150164966753</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1552256304.61828</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6825179189.624022</v>
+        <v>3154802213.183055</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004832862139610248</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.110478645336894</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02235895691178336</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1577401072.382726</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4153313753.469777</v>
+        <v>1776919140.277509</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004170639280014711</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1557903376902921</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.049017300033289</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>888459594.6760169</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>469</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4171163807.399257</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0654235224332564</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03600930180618725</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="D63" t="n">
-        <v>490</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7883275717.182912</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.00505256026226559</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>22</v>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2085581958.36777</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4360857611.837939</v>
+        <v>4269194558.995211</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004361735720822794</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1329218420568255</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0247835761147503</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2134597334.199047</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5136935380.467257</v>
+        <v>5345264641.076291</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004965575459369334</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>22</v>
+        <v>0.1136376887629119</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02980483809268938</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2672632258.774203</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4415653962.068101</v>
+        <v>5460955488.422218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003595568794676247</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>18</v>
+        <v>0.1103137534846904</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03900587397438011</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2730477795.967991</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6933139278.483312</v>
+        <v>2956292657.213076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005091310142465368</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.06504272818275494</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05154282252086758</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>14</v>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1478146350.522358</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8734267358.197155</v>
+        <v>4296228485.904373</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002108996172885359</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>18</v>
+        <v>0.1558561646246429</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04926699304458862</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2148114256.624901</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5252855690.900641</v>
+        <v>1598050779.257603</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001216664528901694</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1823725134880204</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04613582962778706</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>799025342.5289055</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7538294899.673285</v>
+        <v>3683908034.323802</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00322594046345664</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.07587872845517568</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03393459060900372</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1841954038.529974</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4763174649.091311</v>
+        <v>4695961117.833019</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003100398126377406</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1424089812437665</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0295935395894593</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2347980641.826433</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6846261449.383618</v>
+        <v>1945252613.367069</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002345923992211923</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.08589749343020617</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03410891168230445</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>972626261.7846572</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6166569382.136751</v>
+        <v>2807147230.11096</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001282275286260956</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.09091508841302523</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04722943263253906</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1403573628.619061</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4721400013.416586</v>
+        <v>2614199213.468192</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003344993194316234</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18</v>
+        <v>0.1841290614874309</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02480626367404292</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1307099705.414906</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7230040428.149773</v>
+        <v>2197866344.695402</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002902021586374453</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.110933986724975</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03429672071353297</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1098933117.855099</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5263099616.910023</v>
+        <v>4393191216.249407</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002672263853467826</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>18</v>
+        <v>0.1064586422489667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02254336406595472</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2196595609.262944</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6195653605.0208</v>
+        <v>1750501841.602634</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004250032637457087</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1611842159708167</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02037676694519417</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>875250945.3952128</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7542733331.616674</v>
+        <v>4032736507.15151</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004291241506740384</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1342184901566831</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0526144226984047</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2016368216.886898</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5966406279.41429</v>
+        <v>1697464157.015879</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001867424156160617</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1419786225445873</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03534293312863486</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>848732147.1707041</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7615670095.387936</v>
+        <v>3559803283.930594</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002797544069137506</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.0868836227558888</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03044773427195874</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1779901619.468236</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7170744872.377942</v>
+        <v>4814876428.386511</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005022476608795118</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1014282827379975</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02707990300021952</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2407438207.550023</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8262936140.545991</v>
+        <v>3591281447.408917</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005053323103749756</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1760152172497675</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02090211630687634</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1795640786.191113</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8510979190.549773</v>
+        <v>2217114814.610725</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003075717786540398</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1520730912357594</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03911365647724235</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1108557419.58999</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5498484175.045663</v>
+        <v>1998237827.146634</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004527763103576208</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>22</v>
+        <v>0.09203526007726129</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03572157706333152</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>999118918.7417734</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3940216087.984285</v>
+        <v>2330499305.48153</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003488678979339737</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1137813400699744</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03530410887383052</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1165249638.913864</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8254574142.433571</v>
+        <v>1691270884.157682</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002462158509162474</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>22</v>
+        <v>0.1666747867133581</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02536240356043189</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>845635426.6905339</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5266331238.44282</v>
+        <v>1203578457.240974</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00140545702301068</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1512734489158917</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0370236420802585</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>601789285.0363908</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7235556383.957295</v>
+        <v>2996142647.535168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003564349761479376</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1140782990147182</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03001938443996831</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>21</v>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1498071353.744857</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7218132905.615886</v>
+        <v>2790465038.795218</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003579956666176813</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>19</v>
+        <v>0.1128784915159801</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03882570178338058</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>28</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1395232572.793142</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6146575885.94896</v>
+        <v>1441960894.425453</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002449968410642988</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16</v>
+        <v>0.09416844560152024</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04165022406092943</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>720980415.2678474</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5728045446.310154</v>
+        <v>1459369212.932702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00407389098984808</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1327714812143371</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03743162045950416</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>729684650.7088126</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3480639291.151655</v>
+        <v>2027405362.498783</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003674484580573243</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1058108511465546</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03863280946758708</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1013702629.414951</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5752124526.708541</v>
+        <v>4338105897.106476</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001162765417386526</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>29</v>
+        <v>0.1004894308515156</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04067051613655768</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2169052927.20959</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7123922509.847654</v>
+        <v>2389446717.103953</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00125188045937406</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>28</v>
+        <v>0.1186923459467907</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0358168940140828</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1194723407.526852</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7782419825.528696</v>
+        <v>2503048146.793298</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002791595014700571</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>22</v>
+        <v>0.1016290826325359</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04560938765958818</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1251524109.182722</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8240168450.383722</v>
+        <v>1937231807.060667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002241524542874183</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>23</v>
+        <v>0.1326576608844298</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03103422370458775</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>968615897.1246547</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8051812002.396758</v>
+        <v>3688499000.014534</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004864959762097613</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>22</v>
+        <v>0.1180508436876715</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02425301402867099</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1844249531.261489</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6099892199.552837</v>
+        <v>3378115870.077074</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004530664587139482</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>32</v>
+        <v>0.09293972450925406</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02339455771220739</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1689057945.287668</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3479085558.596373</v>
+        <v>2659601991.907192</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005694238685040038</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1089789235663308</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03278332959794731</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>26</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1329800957.140669</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5875242317.741828</v>
+        <v>4384773390.126119</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00304083225900344</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1768256547688831</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02301981675898281</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2192386796.375502</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8022293968.564792</v>
+        <v>3231582859.184803</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001303083600678918</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1878984658662079</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05626112074552271</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>27</v>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1615791549.182693</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_86.xlsx
+++ b/output/fit_clients/fit_round_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2502527900.214959</v>
+        <v>1863702680.471072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07866272330021222</v>
+        <v>0.1028922778412538</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0301608716630887</v>
+        <v>0.0325746847439384</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1251264013.24371</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2449040777.508359</v>
+        <v>2362677854.263595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1678434427021278</v>
+        <v>0.1832761474686317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03553840329081165</v>
+        <v>0.03664509385476733</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1224520498.264513</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5035927191.873987</v>
+        <v>5133262997.969155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1178487121743167</v>
+        <v>0.1065470101333798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02949631520055984</v>
+        <v>0.03758511597482153</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2517963683.416657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3493435924.609773</v>
+        <v>4020496281.699095</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08126750672685502</v>
+        <v>0.06662173237259597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03331773305334099</v>
+        <v>0.04983950110627242</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1746717999.455825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1978889725.723046</v>
+        <v>2878203992.182553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0959135226596235</v>
+        <v>0.1163738734638508</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03540847969345001</v>
+        <v>0.04188701018155848</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>989444894.6343555</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2589942212.787597</v>
+        <v>1960832986.863723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1003482564862565</v>
+        <v>0.08842653550634895</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04190662429776034</v>
+        <v>0.03704583177540115</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1294971110.664496</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2720522214.358825</v>
+        <v>2874722581.194953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1552060333716545</v>
+        <v>0.1937261287215524</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0293934559147755</v>
+        <v>0.03191357106765565</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1360261136.036185</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2271977381.29109</v>
+        <v>2296999602.589214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1987414671255509</v>
+        <v>0.1820213260230934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02485114777540291</v>
+        <v>0.03296472919770891</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1135988679.41103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4559041331.844928</v>
+        <v>5906735385.7967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1372471668668026</v>
+        <v>0.1361814536195692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03617128857632859</v>
+        <v>0.04151038715984978</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2279520731.004994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3617292711.924172</v>
+        <v>3240943087.265145</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1699929421422579</v>
+        <v>0.1682208397844102</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04087933717462047</v>
+        <v>0.03838675263579529</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1808646341.850587</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2360116981.078798</v>
+        <v>2721733398.736009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1915842610913797</v>
+        <v>0.152216472367718</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04713060807203523</v>
+        <v>0.0393582261712031</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1180058449.879493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3460463758.729515</v>
+        <v>4695168594.78792</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0934842822348966</v>
+        <v>0.09960470091016736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02195989282588783</v>
+        <v>0.021809587274825</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1730231961.601288</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3668986084.824564</v>
+        <v>3003837444.613301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1460365950427797</v>
+        <v>0.1408587784906114</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03702844807131296</v>
+        <v>0.0272751710114043</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1834493028.344563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1177649349.947649</v>
+        <v>1761418404.921628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09513237369792127</v>
+        <v>0.09805470937737421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03566055001250158</v>
+        <v>0.03440108616609604</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>588824687.3280145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2244937542.563773</v>
+        <v>2220817936.896883</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1162522581721349</v>
+        <v>0.07562012239971583</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04535208706200418</v>
+        <v>0.04444175309856715</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1122468824.805515</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5284860985.265807</v>
+        <v>3386917193.248578</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1384044276629732</v>
+        <v>0.1503784811445602</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03628064112345249</v>
+        <v>0.05094972140132263</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2642430463.660267</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3304132647.336335</v>
+        <v>2797099682.786996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166418693172662</v>
+        <v>0.1201606903218718</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02913838170515545</v>
+        <v>0.02156911684849698</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1652066331.879404</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1258157940.141511</v>
+        <v>1222612935.144531</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1496070502687536</v>
+        <v>0.1856236261575893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02550604186612868</v>
+        <v>0.020509569694175</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>629079062.1026305</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2652007359.39578</v>
+        <v>1698695111.571186</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1031172388243746</v>
+        <v>0.1275004741777932</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02635217199494549</v>
+        <v>0.02211519703225408</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1326003636.490829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1978230617.496548</v>
+        <v>2057498727.077962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1007600446484592</v>
+        <v>0.0656267039033567</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04260502837280494</v>
+        <v>0.03029596605199329</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>989115346.6937442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2820805554.263493</v>
+        <v>2974516561.959246</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1340224068090728</v>
+        <v>0.1211789853357711</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04997408425861914</v>
+        <v>0.04319604510881103</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1410402849.317811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1483055769.45453</v>
+        <v>966916416.2829229</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1597687958355997</v>
+        <v>0.1271934482250056</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0410069115418718</v>
+        <v>0.03638688346226174</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>741527873.4493452</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3060069867.807237</v>
+        <v>3078662954.024495</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09287988736256544</v>
+        <v>0.1496237670723642</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02895024773853983</v>
+        <v>0.03226606970358436</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1530034965.00403</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1370201119.955015</v>
+        <v>893294620.0640433</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08624671918274082</v>
+        <v>0.08210019183171972</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02605871918293399</v>
+        <v>0.02709749165658234</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>685100538.7115194</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>932920132.1178544</v>
+        <v>1142138780.109226</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1230961305836265</v>
+        <v>0.08798037483297715</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0255436168333358</v>
+        <v>0.02870257470926752</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>466460021.603724</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4098083136.117475</v>
+        <v>3987206941.398617</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1236245431172497</v>
+        <v>0.09754757409966459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01894866493731568</v>
+        <v>0.02038656712850828</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2049041573.257254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2890283809.603559</v>
+        <v>3501160416.764387</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1015197907960789</v>
+        <v>0.1486725486504983</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04807431914648249</v>
+        <v>0.03582078377229499</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1445141906.424289</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5642237565.990355</v>
+        <v>4746226579.342133</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09878273619494289</v>
+        <v>0.11080260257337</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02899995868077679</v>
+        <v>0.0447201055172923</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2821118685.934906</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1663200137.879752</v>
+        <v>1850669872.552343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1374967746613897</v>
+        <v>0.1024474319799883</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03654942740321289</v>
+        <v>0.0374088830824368</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>831600067.9383646</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1264344881.825131</v>
+        <v>1498122917.227241</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1041898782274928</v>
+        <v>0.09333571202596783</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03675533131665695</v>
+        <v>0.04572306080273798</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>632172377.154772</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1209305066.916406</v>
+        <v>1355002212.044742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09515424143451766</v>
+        <v>0.08277877115042293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0353659376816737</v>
+        <v>0.03314936968556441</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>604652541.5153477</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2226840659.661641</v>
+        <v>2823538247.542254</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1843189251265613</v>
+        <v>0.1778636546136549</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04817331988725831</v>
+        <v>0.04632308157924876</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1113420391.223502</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1498441852.659205</v>
+        <v>1039411800.677648</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0798276113712937</v>
+        <v>0.110394559988259</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0247939188712933</v>
+        <v>0.01914113949724543</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>749220882.3610244</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1125982392.372769</v>
+        <v>1253338198.172127</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09096004133944163</v>
+        <v>0.07343451744319546</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04190379686234361</v>
+        <v>0.0397958121394508</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>562991187.0590718</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1996270746.944746</v>
+        <v>2567070646.881987</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1488722142211001</v>
+        <v>0.1664148472257665</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02447032696140832</v>
+        <v>0.02832988831231248</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>22</v>
-      </c>
-      <c r="J36" t="n">
-        <v>998135435.7168366</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2601133670.544529</v>
+        <v>1946895480.77173</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0801865215489824</v>
+        <v>0.09824711448333866</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02697530228730068</v>
+        <v>0.02857964230092056</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>22</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1300566945.159096</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1989452471.595758</v>
+        <v>1795637095.725004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1029248625805805</v>
+        <v>0.07806583749946386</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02677024801852868</v>
+        <v>0.03057154755235614</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>994726215.8398961</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1950703656.266967</v>
+        <v>2009653603.042116</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1200361990684732</v>
+        <v>0.18115951795715</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0234747672341082</v>
+        <v>0.02047513982718159</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>975351830.0635949</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1627548748.167294</v>
+        <v>1225017324.304817</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1190717751614591</v>
+        <v>0.1074515378487</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0510182998876719</v>
+        <v>0.05310339243193783</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>813774308.272711</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1952736094.781814</v>
+        <v>2872925126.086325</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1158673870794902</v>
+        <v>0.1029447008490777</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04405259266876373</v>
+        <v>0.03260710089453253</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>976368126.1390321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3307307053.415186</v>
+        <v>3848750263.464252</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08866446311450563</v>
+        <v>0.1153686216065597</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03137417932751323</v>
+        <v>0.04448471431103863</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>29</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1653653508.219079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1980943038.269979</v>
+        <v>2575287825.081804</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543352358729987</v>
+        <v>0.1701728842638417</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01802925547437005</v>
+        <v>0.02326942894244099</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>990471619.9067303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2289866165.234262</v>
+        <v>1550443355.396975</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09101576834648858</v>
+        <v>0.07053307082612138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02265458892574503</v>
+        <v>0.0313175668738332</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1144933246.718682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1999169486.339294</v>
+        <v>1541084560.845031</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1315654125489005</v>
+        <v>0.1773672241593107</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05602039783346726</v>
+        <v>0.05016409024060405</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>999584733.8660918</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4092880283.032765</v>
+        <v>5173387369.57901</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1579650137652487</v>
+        <v>0.1369818460819104</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0374346995053346</v>
+        <v>0.03899953143178306</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>31</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2046440116.292197</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3623456259.559952</v>
+        <v>4719226399.132294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1735708627460596</v>
+        <v>0.1634993597884556</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0528384020921673</v>
+        <v>0.04400185083759042</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1811728107.528283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3281212135.545049</v>
+        <v>4154927753.586398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08266489560871254</v>
+        <v>0.09015393556476124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02685495493662558</v>
+        <v>0.03824877283183938</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1640606143.836114</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1741067315.40675</v>
+        <v>1427370592.404752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.162203425608471</v>
+        <v>0.1246063429091073</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03218443359857612</v>
+        <v>0.03846231208844989</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>870533652.1657369</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2665706853.816781</v>
+        <v>4049668667.288392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1233276762016905</v>
+        <v>0.159034930517966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05054957662320658</v>
+        <v>0.03643822725664381</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1332853510.462551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1252984907.609866</v>
+        <v>1211164452.77924</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1498944002775451</v>
+        <v>0.1764286436227018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0533798369466633</v>
+        <v>0.05111113487320028</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>626492496.7040085</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4496584868.900558</v>
+        <v>5270288870.872828</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1191499589644601</v>
+        <v>0.1234008153948797</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03893835665076134</v>
+        <v>0.03804013815531367</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>36</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2248292461.622512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3231442974.496732</v>
+        <v>3162015352.292976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1692634945040941</v>
+        <v>0.204922292484285</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03261018599717317</v>
+        <v>0.02568606154461586</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1615721503.637927</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3654589010.422417</v>
+        <v>4180978549.691166</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1036457884143731</v>
+        <v>0.1572816721939219</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05296911155541137</v>
+        <v>0.03976443976246372</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1827294542.086781</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3571522372.17316</v>
+        <v>4683517901.138187</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1669929254390551</v>
+        <v>0.1391187689958238</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02272039578486729</v>
+        <v>0.02263964244570823</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1785761141.984983</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1344403422.370117</v>
+        <v>1792073419.255155</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1639822062531125</v>
+        <v>0.1303560134741749</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05832061648801053</v>
+        <v>0.04769885499022302</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>672201776.4120897</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2985416765.583037</v>
+        <v>4068470372.217719</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1411031244386216</v>
+        <v>0.1383391679648648</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02655376486363065</v>
+        <v>0.0203291012703433</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1492708385.900038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1393766513.844481</v>
+        <v>1164396096.92535</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1865118175713115</v>
+        <v>0.1237887764923181</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02725298578828232</v>
+        <v>0.03979246973595247</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>696883297.6575296</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3742795756.973632</v>
+        <v>3467357987.924953</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1003189395088328</v>
+        <v>0.09182483611462397</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03693135016254716</v>
+        <v>0.03392140254771357</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1871397866.759062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3104512446.789601</v>
+        <v>2448999684.10805</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1776981587355216</v>
+        <v>0.1991760078011149</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0276059596206724</v>
+        <v>0.0316051884783024</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1552256304.61828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3154802213.183055</v>
+        <v>3196632286.773088</v>
       </c>
       <c r="F61" t="n">
-        <v>0.110478645336894</v>
+        <v>0.164771981830714</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02235895691178336</v>
+        <v>0.02275677012897191</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1577401072.382726</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1776919140.277509</v>
+        <v>1365273046.266193</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1557903376902921</v>
+        <v>0.1306918338457446</v>
       </c>
       <c r="G62" t="n">
-        <v>0.049017300033289</v>
+        <v>0.03355854076333857</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>888459594.6760169</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4171163807.399257</v>
+        <v>4208004454.283358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0654235224332564</v>
+        <v>0.08041169368128727</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03600930180618725</v>
+        <v>0.04418106756991719</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2085581958.36777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4269194558.995211</v>
+        <v>3374323331.363529</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1329218420568255</v>
+        <v>0.1908843807180505</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0247835761147503</v>
+        <v>0.03221638644758981</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2134597334.199047</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5345264641.076291</v>
+        <v>4777599426.050834</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1136376887629119</v>
+        <v>0.1540716730070452</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02980483809268938</v>
+        <v>0.02348780433468468</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>31</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2672632258.774203</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5460955488.422218</v>
+        <v>4971875730.199249</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103137534846904</v>
+        <v>0.1104644139846019</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03900587397438011</v>
+        <v>0.04875277549892781</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>25</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2730477795.967991</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2956292657.213076</v>
+        <v>3489422223.608041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06504272818275494</v>
+        <v>0.09429570066933358</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05154282252086758</v>
+        <v>0.04977516447506147</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>27</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1478146350.522358</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4296228485.904373</v>
+        <v>5852386515.151572</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1558561646246429</v>
+        <v>0.1184741370355186</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04926699304458862</v>
+        <v>0.0495166670969591</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>27</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2148114256.624901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1598050779.257603</v>
+        <v>2130443984.435107</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1823725134880204</v>
+        <v>0.1456200705949266</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04613582962778706</v>
+        <v>0.05072494630758188</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>799025342.5289055</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3683908034.323802</v>
+        <v>2542023726.362717</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07587872845517568</v>
+        <v>0.09914457341730391</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03393459060900372</v>
+        <v>0.04979556226380264</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1841954038.529974</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4695961117.833019</v>
+        <v>5116594587.130004</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1424089812437665</v>
+        <v>0.1798143297385675</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0295935395894593</v>
+        <v>0.02457085716197879</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2347980641.826433</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945252613.367069</v>
+        <v>1537336360.903435</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08589749343020617</v>
+        <v>0.0723678026908393</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03410891168230445</v>
+        <v>0.03474208899294436</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>972626261.7846572</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2807147230.11096</v>
+        <v>2664380967.004214</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09091508841302523</v>
+        <v>0.07922173121196134</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04722943263253906</v>
+        <v>0.04077357093582798</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>33</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1403573628.619061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2614199213.468192</v>
+        <v>2665565981.938888</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1841290614874309</v>
+        <v>0.1391332077518571</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02480626367404292</v>
+        <v>0.0332291429259353</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1307099705.414906</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197866344.695402</v>
+        <v>2070396839.70074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110933986724975</v>
+        <v>0.1180121179908447</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03429672071353297</v>
+        <v>0.03609786453307124</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1098933117.855099</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4393191216.249407</v>
+        <v>4812997964.866643</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1064586422489667</v>
+        <v>0.1095348612252847</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02254336406595472</v>
+        <v>0.02763803013050146</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2196595609.262944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1750501841.602634</v>
+        <v>1551657335.886158</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1611842159708167</v>
+        <v>0.1409031062456627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02037676694519417</v>
+        <v>0.0285465226057215</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>875250945.3952128</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4032736507.15151</v>
+        <v>4224555245.240178</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1342184901566831</v>
+        <v>0.09492885545264937</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0526144226984047</v>
+        <v>0.04791742709365469</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2016368216.886898</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1697464157.015879</v>
+        <v>1295913056.133539</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1419786225445873</v>
+        <v>0.1497060337839715</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03534293312863486</v>
+        <v>0.03542679803938233</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>848732147.1707041</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3559803283.930594</v>
+        <v>5015959541.881936</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0868836227558888</v>
+        <v>0.08885995159076665</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03044773427195874</v>
+        <v>0.03368322742061262</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1779901619.468236</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4814876428.386511</v>
+        <v>3707224028.622141</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1014282827379975</v>
+        <v>0.08549339196834384</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02707990300021952</v>
+        <v>0.03134371203286074</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2407438207.550023</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3591281447.408917</v>
+        <v>5203695585.712381</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1760152172497675</v>
+        <v>0.2030461342721951</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02090211630687634</v>
+        <v>0.02786329771778979</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1795640786.191113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2217114814.610725</v>
+        <v>2384429259.200893</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1520730912357594</v>
+        <v>0.1166826301711279</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03911365647724235</v>
+        <v>0.03973604413214005</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1108557419.58999</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1998237827.146634</v>
+        <v>1578824208.112436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09203526007726129</v>
+        <v>0.1083617299036756</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03572157706333152</v>
+        <v>0.03704010125873118</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>999118918.7417734</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2330499305.48153</v>
+        <v>2852434171.330361</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1137813400699744</v>
+        <v>0.1326270955220262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03530410887383052</v>
+        <v>0.05291470929990973</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1165249638.913864</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1691270884.157682</v>
+        <v>2332493647.814714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1666747867133581</v>
+        <v>0.1620361739047164</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02536240356043189</v>
+        <v>0.02660281161929373</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>845635426.6905339</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1203578457.240974</v>
+        <v>1373344734.099038</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1512734489158917</v>
+        <v>0.165906217851677</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0370236420802585</v>
+        <v>0.04426406713263178</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>601789285.0363908</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2996142647.535168</v>
+        <v>3197408456.260559</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1140782990147182</v>
+        <v>0.1161133087363002</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03001938443996831</v>
+        <v>0.03328591002396594</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>33</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1498071353.744857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2790465038.795218</v>
+        <v>2369453338.058272</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1128784915159801</v>
+        <v>0.1084359568056286</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03882570178338058</v>
+        <v>0.02568525205169505</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>28</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1395232572.793142</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1441960894.425453</v>
+        <v>1631356130.751108</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09416844560152024</v>
+        <v>0.08924990161383185</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04165022406092943</v>
+        <v>0.04052081267910969</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>720980415.2678474</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1459369212.932702</v>
+        <v>1457252822.519284</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1327714812143371</v>
+        <v>0.1422366197360252</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03743162045950416</v>
+        <v>0.04993875214887616</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>729684650.7088126</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2027405362.498783</v>
+        <v>2990550860.475796</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1058108511465546</v>
+        <v>0.09030510699890801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03863280946758708</v>
+        <v>0.03372622828444431</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1013702629.414951</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4338105897.106476</v>
+        <v>4133355036.71404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1004894308515156</v>
+        <v>0.1134194494225526</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04067051613655768</v>
+        <v>0.03864826785438478</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2169052927.20959</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2389446717.103953</v>
+        <v>1913237629.899893</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1186923459467907</v>
+        <v>0.1094995977286215</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0358168940140828</v>
+        <v>0.03059839606178822</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1194723407.526852</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2503048146.793298</v>
+        <v>2837173099.884926</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1016290826325359</v>
+        <v>0.09707162193069246</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04560938765958818</v>
+        <v>0.05123219482124333</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1251524109.182722</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1937231807.060667</v>
+        <v>2254370781.278747</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1326576608844298</v>
+        <v>0.1108083723373206</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03103422370458775</v>
+        <v>0.03469198593567864</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>968615897.1246547</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3688499000.014534</v>
+        <v>3751173516.714911</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1180508436876715</v>
+        <v>0.1310583067626915</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02425301402867099</v>
+        <v>0.02340721969563585</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>28</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1844249531.261489</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3378115870.077074</v>
+        <v>3194219673.426966</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09293972450925406</v>
+        <v>0.1029478882440806</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02339455771220739</v>
+        <v>0.02181418259984033</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1689057945.287668</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2659601991.907192</v>
+        <v>2746114300.979768</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1089789235663308</v>
+        <v>0.09241029483210712</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03278332959794731</v>
+        <v>0.02453758636231296</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>26</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1329800957.140669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4384773390.126119</v>
+        <v>4763579926.750909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1768256547688831</v>
+        <v>0.1094942958375241</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02301981675898281</v>
+        <v>0.01771362233532491</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>26</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2192386796.375502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3231582859.184803</v>
+        <v>3472179491.713228</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1878984658662079</v>
+        <v>0.2224713960886942</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05626112074552271</v>
+        <v>0.0579175709274414</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>36</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1615791549.182693</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_86.xlsx
+++ b/output/fit_clients/fit_round_86.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1863702680.471072</v>
+        <v>2012591897.367156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1028922778412538</v>
+        <v>0.07896672059155582</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0325746847439384</v>
+        <v>0.04141828062841391</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2362677854.263595</v>
+        <v>1884734857.829942</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1832761474686317</v>
+        <v>0.1315362916358119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03664509385476733</v>
+        <v>0.04753964812707425</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5133262997.969155</v>
+        <v>4692246239.923527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1065470101333798</v>
+        <v>0.147568235287151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03758511597482153</v>
+        <v>0.03137607644680284</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4020496281.699095</v>
+        <v>3143376237.938506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06662173237259597</v>
+        <v>0.1073327363611087</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04983950110627242</v>
+        <v>0.03163379469782376</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2878203992.182553</v>
+        <v>1821066656.71521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163738734638508</v>
+        <v>0.0953152139913177</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04188701018155848</v>
+        <v>0.0513218785861155</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1960832986.863723</v>
+        <v>2447814034.361315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08842653550634895</v>
+        <v>0.09410802712903631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03704583177540115</v>
+        <v>0.03998543995215202</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2874722581.194953</v>
+        <v>2617022693.653478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1937261287215524</v>
+        <v>0.1681536836357614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03191357106765565</v>
+        <v>0.03216324538955955</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2296999602.589214</v>
+        <v>1991823415.935039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1820213260230934</v>
+        <v>0.1763157261168168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03296472919770891</v>
+        <v>0.0346495005287431</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5906735385.7967</v>
+        <v>4704218268.155386</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361814536195692</v>
+        <v>0.196862952511415</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04151038715984978</v>
+        <v>0.03938225765058704</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3240943087.265145</v>
+        <v>4202784105.569406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1682208397844102</v>
+        <v>0.1269094111317848</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03838675263579529</v>
+        <v>0.03377899569960068</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2721733398.736009</v>
+        <v>2837272823.797517</v>
       </c>
       <c r="F12" t="n">
-        <v>0.152216472367718</v>
+        <v>0.129442373079378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0393582261712031</v>
+        <v>0.04746120041910066</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4695168594.78792</v>
+        <v>5193841694.921176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09960470091016736</v>
+        <v>0.08984538394838146</v>
       </c>
       <c r="G13" t="n">
-        <v>0.021809587274825</v>
+        <v>0.02920687117868665</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3003837444.613301</v>
+        <v>3777629585.338283</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1408587784906114</v>
+        <v>0.1555284447057077</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0272751710114043</v>
+        <v>0.04318551655773913</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1761418404.921628</v>
+        <v>1585560333.594046</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09805470937737421</v>
+        <v>0.09418580868265901</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03440108616609604</v>
+        <v>0.04008408930362242</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2220817936.896883</v>
+        <v>2516097858.37735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07562012239971583</v>
+        <v>0.1047453045168691</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04444175309856715</v>
+        <v>0.0468594892242065</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3386917193.248578</v>
+        <v>3411013594.158136</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1503784811445602</v>
+        <v>0.1320078031885668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05094972140132263</v>
+        <v>0.03790024667462176</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2797099682.786996</v>
+        <v>3619417809.736354</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1201606903218718</v>
+        <v>0.1281172093458419</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02156911684849698</v>
+        <v>0.03434848414401319</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222612935.144531</v>
+        <v>963281184.5038806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1856236261575893</v>
+        <v>0.1459893189673636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.020509569694175</v>
+        <v>0.02707336342031662</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1698695111.571186</v>
+        <v>2159762898.783795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1275004741777932</v>
+        <v>0.1607715082867348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02211519703225408</v>
+        <v>0.02555310918525829</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2057498727.077962</v>
+        <v>2039729815.373561</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0656267039033567</v>
+        <v>0.08455323850477434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03029596605199329</v>
+        <v>0.04601024346587928</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2974516561.959246</v>
+        <v>2797285613.360829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1211789853357711</v>
+        <v>0.1042189641537296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04319604510881103</v>
+        <v>0.05421594720103783</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>966916416.2829229</v>
+        <v>1025057932.440946</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1271934482250056</v>
+        <v>0.1226298820994513</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03638688346226174</v>
+        <v>0.05054272461102922</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3078662954.024495</v>
+        <v>3214877862.899532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1496237670723642</v>
+        <v>0.1189912833127182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03226606970358436</v>
+        <v>0.03486567499600451</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>893294620.0640433</v>
+        <v>1092321920.97147</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08210019183171972</v>
+        <v>0.1119724014228199</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02709749165658234</v>
+        <v>0.02167864777002851</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1142138780.109226</v>
+        <v>1358238780.993117</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08798037483297715</v>
+        <v>0.09811761665738393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02870257470926752</v>
+        <v>0.03705787616568998</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3987206941.398617</v>
+        <v>2891008279.762811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09754757409966459</v>
+        <v>0.1059800554337068</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02038656712850828</v>
+        <v>0.02516328170440893</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3501160416.764387</v>
+        <v>3842624436.313006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1486725486504983</v>
+        <v>0.1451974256043509</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03582078377229499</v>
+        <v>0.04675414718460093</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4746226579.342133</v>
+        <v>5367781936.398854</v>
       </c>
       <c r="F29" t="n">
-        <v>0.11080260257337</v>
+        <v>0.1494772188533864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0447201055172923</v>
+        <v>0.03866611292147459</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1850669872.552343</v>
+        <v>2052545362.074109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1024474319799883</v>
+        <v>0.09157596009587769</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0374088830824368</v>
+        <v>0.02718474842589864</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1498122917.227241</v>
+        <v>1265667821.255197</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09333571202596783</v>
+        <v>0.09401126762767624</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04572306080273798</v>
+        <v>0.04728154458317861</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1355002212.044742</v>
+        <v>1655327694.376851</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08277877115042293</v>
+        <v>0.0778211617895434</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03314936968556441</v>
+        <v>0.03382183920128301</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2823538247.542254</v>
+        <v>2963504198.1502</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1778636546136549</v>
+        <v>0.1563805278024726</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04632308157924876</v>
+        <v>0.04376711876785908</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1039411800.677648</v>
+        <v>1037975613.572549</v>
       </c>
       <c r="F34" t="n">
-        <v>0.110394559988259</v>
+        <v>0.1201921960498527</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01914113949724543</v>
+        <v>0.02159908954819659</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1253338198.172127</v>
+        <v>949656853.2723241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07343451744319546</v>
+        <v>0.09490271642070022</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0397958121394508</v>
+        <v>0.03156599203943641</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2567070646.881987</v>
+        <v>2137667353.618495</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1664148472257665</v>
+        <v>0.1617404408489184</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02832988831231248</v>
+        <v>0.0288420483868365</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1946895480.77173</v>
+        <v>2425874032.592821</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09824711448333866</v>
+        <v>0.0908730287907198</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02857964230092056</v>
+        <v>0.04052017739171463</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1795637095.725004</v>
+        <v>2150174858.068486</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07806583749946386</v>
+        <v>0.09659572305592454</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03057154755235614</v>
+        <v>0.02491375216766567</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2009653603.042116</v>
+        <v>1861031358.894861</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18115951795715</v>
+        <v>0.1616790303741854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02047513982718159</v>
+        <v>0.03153174158060646</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1225017324.304817</v>
+        <v>1534857487.092998</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1074515378487</v>
+        <v>0.1087665512763761</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05310339243193783</v>
+        <v>0.0394516320197983</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2872925126.086325</v>
+        <v>1938842154.699353</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1029447008490777</v>
+        <v>0.1602725819116766</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03260710089453253</v>
+        <v>0.044611932520718</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3848750263.464252</v>
+        <v>4167072225.520551</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1153686216065597</v>
+        <v>0.1252329099432722</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04448471431103863</v>
+        <v>0.037156393492585</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2575287825.081804</v>
+        <v>2188034991.572474</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1701728842638417</v>
+        <v>0.1992802593370171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02326942894244099</v>
+        <v>0.01839148072992518</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1550443355.396975</v>
+        <v>2081398515.922036</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07053307082612138</v>
+        <v>0.09314928114613652</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0313175668738332</v>
+        <v>0.03590915496413655</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1541084560.845031</v>
+        <v>1783918389.223374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1773672241593107</v>
+        <v>0.186664749334069</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05016409024060405</v>
+        <v>0.05232383322078237</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5173387369.57901</v>
+        <v>5346968259.094205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369818460819104</v>
+        <v>0.1227992518606124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03899953143178306</v>
+        <v>0.04439992479102058</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4719226399.132294</v>
+        <v>3702339716.475194</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1634993597884556</v>
+        <v>0.1511928140805386</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04400185083759042</v>
+        <v>0.03813183130796843</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4154927753.586398</v>
+        <v>4257386238.117863</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09015393556476124</v>
+        <v>0.1097430137167088</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03824877283183938</v>
+        <v>0.03770783948138384</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1427370592.404752</v>
+        <v>1247669519.419203</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1246063429091073</v>
+        <v>0.1196195324398118</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03846231208844989</v>
+        <v>0.03647487498753577</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4049668667.288392</v>
+        <v>3921700250.238283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.159034930517966</v>
+        <v>0.136439565935176</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03643822725664381</v>
+        <v>0.03482041764154067</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1211164452.77924</v>
+        <v>1502078634.555034</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1764286436227018</v>
+        <v>0.1487890999033105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05111113487320028</v>
+        <v>0.03704308581495405</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5270288870.872828</v>
+        <v>4478280400.98529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1234008153948797</v>
+        <v>0.1081638237794796</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03804013815531367</v>
+        <v>0.04330612438781875</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3162015352.292976</v>
+        <v>3307607528.318883</v>
       </c>
       <c r="F53" t="n">
-        <v>0.204922292484285</v>
+        <v>0.1327419963848547</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02568606154461586</v>
+        <v>0.02686405343404013</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4180978549.691166</v>
+        <v>3848596699.487198</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1572816721939219</v>
+        <v>0.1229950924840466</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03976443976246372</v>
+        <v>0.04451072990613759</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4683517901.138187</v>
+        <v>3981036344.510996</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1391187689958238</v>
+        <v>0.2109319989728047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02263964244570823</v>
+        <v>0.02970386822268598</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1792073419.255155</v>
+        <v>1211650385.840472</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1303560134741749</v>
+        <v>0.1255313834405779</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04769885499022302</v>
+        <v>0.04805598408992479</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4068470372.217719</v>
+        <v>3741978791.886343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1383391679648648</v>
+        <v>0.1450685071401462</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0203291012703433</v>
+        <v>0.02679574681066284</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1164396096.92535</v>
+        <v>1437458609.855808</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1237887764923181</v>
+        <v>0.202678252977908</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03979246973595247</v>
+        <v>0.02419534990644762</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3467357987.924953</v>
+        <v>5399312803.388315</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09182483611462397</v>
+        <v>0.08294393241267485</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03392140254771357</v>
+        <v>0.03584434193032143</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2448999684.10805</v>
+        <v>3050431184.514354</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1991760078011149</v>
+        <v>0.205146923955825</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0316051884783024</v>
+        <v>0.03317283239966371</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3196632286.773088</v>
+        <v>3097719876.007473</v>
       </c>
       <c r="F61" t="n">
-        <v>0.164771981830714</v>
+        <v>0.1742807476986516</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02275677012897191</v>
+        <v>0.02940693622847576</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1365273046.266193</v>
+        <v>1570534330.771205</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1306918338457446</v>
+        <v>0.1554012023182158</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03355854076333857</v>
+        <v>0.03376247795255647</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4208004454.283358</v>
+        <v>4052316807.222178</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08041169368128727</v>
+        <v>0.1070703737566034</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04418106756991719</v>
+        <v>0.03712398716128817</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3374323331.363529</v>
+        <v>5411057013.256766</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1908843807180505</v>
+        <v>0.1257140211290326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03221638644758981</v>
+        <v>0.02822651426902401</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4777599426.050834</v>
+        <v>5438935262.736614</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1540716730070452</v>
+        <v>0.1467091017889177</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02348780433468468</v>
+        <v>0.0261117143605819</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4971875730.199249</v>
+        <v>4682015235.191236</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1104644139846019</v>
+        <v>0.100128582882856</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04875277549892781</v>
+        <v>0.05115197062585231</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3489422223.608041</v>
+        <v>2406092523.057689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09429570066933358</v>
+        <v>0.08166709176937303</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04977516447506147</v>
+        <v>0.03953619546160739</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5852386515.151572</v>
+        <v>5143922511.977462</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184741370355186</v>
+        <v>0.1537250678735707</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0495166670969591</v>
+        <v>0.04401360059572582</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2130443984.435107</v>
+        <v>1946775295.810525</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1456200705949266</v>
+        <v>0.1472095560320497</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05072494630758188</v>
+        <v>0.03726012624424269</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2542023726.362717</v>
+        <v>3341602167.727639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09914457341730391</v>
+        <v>0.07659123971283401</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04979556226380264</v>
+        <v>0.03661195724850422</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5116594587.130004</v>
+        <v>5442145415.547654</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1798143297385675</v>
+        <v>0.1301466201955844</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02457085716197879</v>
+        <v>0.03068248463324412</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1537336360.903435</v>
+        <v>1701646437.701284</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0723678026908393</v>
+        <v>0.1042347395841352</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03474208899294436</v>
+        <v>0.04879449685651447</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2664380967.004214</v>
+        <v>2389283345.755623</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07922173121196134</v>
+        <v>0.09771714480617838</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04077357093582798</v>
+        <v>0.04547962631327181</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665565981.938888</v>
+        <v>2586430059.614916</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1391332077518571</v>
+        <v>0.1247501352184882</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0332291429259353</v>
+        <v>0.03142516836065945</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2070396839.70074</v>
+        <v>2078703717.321756</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1180121179908447</v>
+        <v>0.1498404251707337</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03609786453307124</v>
+        <v>0.02337910412933267</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4812997964.866643</v>
+        <v>5007085559.589084</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095348612252847</v>
+        <v>0.1049231305174507</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02763803013050146</v>
+        <v>0.02227786881257612</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1551657335.886158</v>
+        <v>1775319913.617825</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1409031062456627</v>
+        <v>0.1805267514469705</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0285465226057215</v>
+        <v>0.02775862045455713</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4224555245.240178</v>
+        <v>4543798277.765547</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09492885545264937</v>
+        <v>0.1054620963194969</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04791742709365469</v>
+        <v>0.04177834812088184</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1295913056.133539</v>
+        <v>1615062034.457726</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1497060337839715</v>
+        <v>0.1439415424476322</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03542679803938233</v>
+        <v>0.03233948810062056</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5015959541.881936</v>
+        <v>4348229994.010764</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08885995159076665</v>
+        <v>0.100712931495263</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03368322742061262</v>
+        <v>0.02521663417046816</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3707224028.622141</v>
+        <v>4784690052.195867</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08549339196834384</v>
+        <v>0.08275390198167246</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03134371203286074</v>
+        <v>0.0209884529579155</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5203695585.712381</v>
+        <v>4818200880.362955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2030461342721951</v>
+        <v>0.145477953005629</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02786329771778979</v>
+        <v>0.02191447514917875</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2384429259.200893</v>
+        <v>1908308058.874792</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1166826301711279</v>
+        <v>0.1134499365482211</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03973604413214005</v>
+        <v>0.03273095368832707</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1578824208.112436</v>
+        <v>2414393678.199243</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1083617299036756</v>
+        <v>0.1026255865335056</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03704010125873118</v>
+        <v>0.03873687708420583</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2852434171.330361</v>
+        <v>3018089685.189647</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1326270955220262</v>
+        <v>0.1693185552655138</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05291470929990973</v>
+        <v>0.0497890323776355</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2332493647.814714</v>
+        <v>2270434463.577614</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620361739047164</v>
+        <v>0.1393741771480329</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02660281161929373</v>
+        <v>0.01720437282398681</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1373344734.099038</v>
+        <v>1462588684.532047</v>
       </c>
       <c r="F87" t="n">
-        <v>0.165906217851677</v>
+        <v>0.1543022504427624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04426406713263178</v>
+        <v>0.04419202729753154</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3197408456.260559</v>
+        <v>3400677192.330748</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1161133087363002</v>
+        <v>0.1472457539497655</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03328591002396594</v>
+        <v>0.02989874949483805</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2369453338.058272</v>
+        <v>2660539176.248205</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1084359568056286</v>
+        <v>0.1486804369032567</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02568525205169505</v>
+        <v>0.03340330299560861</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1631356130.751108</v>
+        <v>1734993287.361495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08924990161383185</v>
+        <v>0.08388349989022197</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04052081267910969</v>
+        <v>0.04787914933801081</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1457252822.519284</v>
+        <v>1945812904.904181</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1422366197360252</v>
+        <v>0.1949108720038983</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04993875214887616</v>
+        <v>0.04650029316085703</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2990550860.475796</v>
+        <v>2437625764.889233</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09030510699890801</v>
+        <v>0.102073171062556</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03372622828444431</v>
+        <v>0.03208445411539642</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4133355036.71404</v>
+        <v>3564795596.794521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1134194494225526</v>
+        <v>0.0942471220534002</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03864826785438478</v>
+        <v>0.05289223774202992</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1913237629.899893</v>
+        <v>2380623230.768418</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1094995977286215</v>
+        <v>0.1195489517305017</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03059839606178822</v>
+        <v>0.03224679529548184</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2837173099.884926</v>
+        <v>2803357264.663912</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09707162193069246</v>
+        <v>0.117609599509849</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05123219482124333</v>
+        <v>0.03331313895805215</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2254370781.278747</v>
+        <v>1557693547.400103</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1108083723373206</v>
+        <v>0.1353544261900905</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03469198593567864</v>
+        <v>0.04170978691952582</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3751173516.714911</v>
+        <v>3874215231.768703</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1310583067626915</v>
+        <v>0.1388686864502635</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02340721969563585</v>
+        <v>0.02125913606093627</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3194219673.426966</v>
+        <v>3464442414.384519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1029478882440806</v>
+        <v>0.1101099652709016</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02181418259984033</v>
+        <v>0.02726399537101338</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2746114300.979768</v>
+        <v>3408149198.027964</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09241029483210712</v>
+        <v>0.1051997003226513</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02453758636231296</v>
+        <v>0.02384215521300765</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4763579926.750909</v>
+        <v>3892690731.516889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1094942958375241</v>
+        <v>0.1364582701474827</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01771362233532491</v>
+        <v>0.02085559610530472</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3472179491.713228</v>
+        <v>2784690928.039066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2224713960886942</v>
+        <v>0.2093858276651921</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0579175709274414</v>
+        <v>0.0389411333574144</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_86.xlsx
+++ b/output/fit_clients/fit_round_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2012591897.367156</v>
+        <v>2232470412.921636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07896672059155582</v>
+        <v>0.09377790126350508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04141828062841391</v>
+        <v>0.04424838939709221</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1884734857.829942</v>
+        <v>2057840640.200406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1315362916358119</v>
+        <v>0.1200662068515729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04753964812707425</v>
+        <v>0.04800619147484524</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4692246239.923527</v>
+        <v>4112446303.696088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147568235287151</v>
+        <v>0.1352323060710979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03137607644680284</v>
+        <v>0.02921172751506943</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>176.2454704486296</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3143376237.938506</v>
+        <v>3644654297.534425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1073327363611087</v>
+        <v>0.1036222161478706</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03163379469782376</v>
+        <v>0.0399588338030792</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1821066656.71521</v>
+        <v>2196716393.567103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0953152139913177</v>
+        <v>0.1280824742861385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0513218785861155</v>
+        <v>0.0450798883020753</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2447814034.361315</v>
+        <v>3012420772.857487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09410802712903631</v>
+        <v>0.06799161963425095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03998543995215202</v>
+        <v>0.04920887563920814</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2617022693.653478</v>
+        <v>2686411133.963006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1681536836357614</v>
+        <v>0.2058834817672537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03216324538955955</v>
+        <v>0.02728627696296971</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>93.7665576999587</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1991823415.935039</v>
+        <v>1843223800.551414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1763157261168168</v>
+        <v>0.1909557889662486</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0346495005287431</v>
+        <v>0.02862277699352364</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4704218268.155386</v>
+        <v>4207478335.781113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.196862952511415</v>
+        <v>0.1732327561953476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03938225765058704</v>
+        <v>0.04538353436910032</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" t="n">
+        <v>86</v>
+      </c>
+      <c r="K10" t="n">
+        <v>195.0091017317573</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4202784105.569406</v>
+        <v>3152406131.090383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1269094111317848</v>
+        <v>0.1491443485684117</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03377899569960068</v>
+        <v>0.04067225196017175</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2837272823.797517</v>
+        <v>2104948573.159342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.129442373079378</v>
+        <v>0.155406657271383</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04746120041910066</v>
+        <v>0.03828729124868813</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5193841694.921176</v>
+        <v>3653645212.257311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08984538394838146</v>
+        <v>0.07045168159075925</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02920687117868665</v>
+        <v>0.02950660621150723</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>86</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3777629585.338283</v>
+        <v>2630771167.275901</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555284447057077</v>
+        <v>0.1736282383296544</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04318551655773913</v>
+        <v>0.03490897484114129</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1585560333.594046</v>
+        <v>1432492293.095516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09418580868265901</v>
+        <v>0.0701789885741398</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04008408930362242</v>
+        <v>0.0439825155479107</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2516097858.37735</v>
+        <v>1938256078.901837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1047453045168691</v>
+        <v>0.07148099231048875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0468594892242065</v>
+        <v>0.03469464524237931</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3411013594.158136</v>
+        <v>4434960877.150344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1320078031885668</v>
+        <v>0.107378505848925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03790024667462176</v>
+        <v>0.05058510151838719</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3619417809.736354</v>
+        <v>3354326988.657093</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1281172093458419</v>
+        <v>0.1146895357162659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03434848414401319</v>
+        <v>0.02634106898678158</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>86</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>963281184.5038806</v>
+        <v>1103384210.353423</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1459893189673636</v>
+        <v>0.1228350682333558</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02707336342031662</v>
+        <v>0.02188691527734941</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2159762898.783795</v>
+        <v>2801350067.381529</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1607715082867348</v>
+        <v>0.1555779600833461</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02555310918525829</v>
+        <v>0.0301819696709059</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2039729815.373561</v>
+        <v>2479222538.077475</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08455323850477434</v>
+        <v>0.07803451855760526</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04601024346587928</v>
+        <v>0.04290979273470562</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2797285613.360829</v>
+        <v>2922000830.148535</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1042189641537296</v>
+        <v>0.09140402293046256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05421594720103783</v>
+        <v>0.03689174775565928</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025057932.440946</v>
+        <v>1260280514.343937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1226298820994513</v>
+        <v>0.1339252299924566</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05054272461102922</v>
+        <v>0.04296988029577511</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3214877862.899532</v>
+        <v>3038719717.230956</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1189912833127182</v>
+        <v>0.1122080270025306</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03486567499600451</v>
+        <v>0.02688715780849836</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1092321920.97147</v>
+        <v>1236379335.093389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1119724014228199</v>
+        <v>0.123055234156006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02167864777002851</v>
+        <v>0.02037395327740488</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1358238780.993117</v>
+        <v>1235133322.076212</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09811761665738393</v>
+        <v>0.09437264379225634</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03705787616568998</v>
+        <v>0.02993391679737413</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2891008279.762811</v>
+        <v>3015294954.865138</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1059800554337068</v>
+        <v>0.1331580088544643</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02516328170440893</v>
+        <v>0.02133349910259649</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>84</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3842624436.313006</v>
+        <v>2439418032.992419</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1451974256043509</v>
+        <v>0.1310576175946852</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04675414718460093</v>
+        <v>0.042061396355412</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5367781936.398854</v>
+        <v>4189065177.327353</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1494772188533864</v>
+        <v>0.1054197785702418</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03866611292147459</v>
+        <v>0.02918396378276508</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>80</v>
+      </c>
+      <c r="J29" t="n">
+        <v>86</v>
+      </c>
+      <c r="K29" t="n">
+        <v>205.2753855450597</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2052545362.074109</v>
+        <v>1508290977.947902</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09157596009587769</v>
+        <v>0.1323711113015662</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02718474842589864</v>
+        <v>0.03250370316681641</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1265667821.255197</v>
+        <v>1013024563.547458</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09401126762767624</v>
+        <v>0.1050791233245419</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04728154458317861</v>
+        <v>0.03689222543120086</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1655327694.376851</v>
+        <v>1339657060.337046</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0778211617895434</v>
+        <v>0.1112297598413694</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03382183920128301</v>
+        <v>0.03242331762372215</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2963504198.1502</v>
+        <v>2712815868.095221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563805278024726</v>
+        <v>0.1354564275403455</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04376711876785908</v>
+        <v>0.05682253823489871</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1037975613.572549</v>
+        <v>1157707655.357565</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1201921960498527</v>
+        <v>0.07901307351468592</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02159908954819659</v>
+        <v>0.01942024130446762</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>949656853.2723241</v>
+        <v>822963845.4035937</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09490271642070022</v>
+        <v>0.07331024022283827</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03156599203943641</v>
+        <v>0.04175428390468411</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2137667353.618495</v>
+        <v>3256044253.289465</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1617404408489184</v>
+        <v>0.1580647506986704</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0288420483868365</v>
+        <v>0.01877202235152359</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2425874032.592821</v>
+        <v>2006343968.441649</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0908730287907198</v>
+        <v>0.06969932176431026</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04052017739171463</v>
+        <v>0.02633259125203344</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2150174858.068486</v>
+        <v>1717848862.836345</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09659572305592454</v>
+        <v>0.07727527235082246</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02491375216766567</v>
+        <v>0.02669866853194604</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1861031358.894861</v>
+        <v>1695908655.670898</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1616790303741854</v>
+        <v>0.1702028196540396</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03153174158060646</v>
+        <v>0.02422871014010858</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1534857487.092998</v>
+        <v>1398198858.87735</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1087665512763761</v>
+        <v>0.1137153751943717</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0394516320197983</v>
+        <v>0.05837546944794342</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1938842154.699353</v>
+        <v>2122406081.005639</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1602725819116766</v>
+        <v>0.1472244845835834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.044611932520718</v>
+        <v>0.04697262812727128</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4167072225.520551</v>
+        <v>2951044263.231384</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252329099432722</v>
+        <v>0.1200657559180763</v>
       </c>
       <c r="G42" t="n">
-        <v>0.037156393492585</v>
+        <v>0.04270322770271546</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2188034991.572474</v>
+        <v>2231388584.328242</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1992802593370171</v>
+        <v>0.1734628556976713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01839148072992518</v>
+        <v>0.02096834658623501</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2081398515.922036</v>
+        <v>2062668200.016841</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09314928114613652</v>
+        <v>0.09108985072347492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03590915496413655</v>
+        <v>0.03410150179343772</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1783918389.223374</v>
+        <v>2193409949.491913</v>
       </c>
       <c r="F45" t="n">
-        <v>0.186664749334069</v>
+        <v>0.1564816376998252</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05232383322078237</v>
+        <v>0.05134313473123354</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5346968259.094205</v>
+        <v>4623504997.853908</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1227992518606124</v>
+        <v>0.114758182632936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04439992479102058</v>
+        <v>0.05763342085022506</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>49</v>
+      </c>
+      <c r="J46" t="n">
+        <v>86</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3702339716.475194</v>
+        <v>4487570856.745831</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1511928140805386</v>
+        <v>0.1593831612074454</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03813183130796843</v>
+        <v>0.04712653750406792</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39</v>
+      </c>
+      <c r="J47" t="n">
+        <v>85</v>
+      </c>
+      <c r="K47" t="n">
+        <v>146.1815809154722</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4257386238.117863</v>
+        <v>3457714239.844152</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097430137167088</v>
+        <v>0.07073238194741772</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03770783948138384</v>
+        <v>0.02754869173332614</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>85</v>
+      </c>
+      <c r="K48" t="n">
+        <v>158.9589375250275</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1247669519.419203</v>
+        <v>1450580289.791392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1196195324398118</v>
+        <v>0.1220965810395032</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03647487498753577</v>
+        <v>0.0294086095832022</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3921700250.238283</v>
+        <v>2621787667.610637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.136439565935176</v>
+        <v>0.1318420849793147</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03482041764154067</v>
+        <v>0.03530892638912961</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1502078634.555034</v>
+        <v>1091931856.456966</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1487890999033105</v>
+        <v>0.1451408164109859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03704308581495405</v>
+        <v>0.04502297917637339</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4478280400.98529</v>
+        <v>3659251270.637692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1081638237794796</v>
+        <v>0.1286730734374958</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04330612438781875</v>
+        <v>0.04817036799173392</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>66</v>
+      </c>
+      <c r="J52" t="n">
+        <v>86</v>
+      </c>
+      <c r="K52" t="n">
+        <v>183.3185190241431</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3307607528.318883</v>
+        <v>2837220503.549735</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1327419963848547</v>
+        <v>0.1963636924469817</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02686405343404013</v>
+        <v>0.02339208641671243</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85</v>
+      </c>
+      <c r="K53" t="n">
+        <v>97.66226569188065</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3848596699.487198</v>
+        <v>3000658483.60146</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1229950924840466</v>
+        <v>0.1690706131855776</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04451072990613759</v>
+        <v>0.03676465858681814</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>39</v>
+      </c>
+      <c r="J54" t="n">
+        <v>85</v>
+      </c>
+      <c r="K54" t="n">
+        <v>116.9151705255253</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3981036344.510996</v>
+        <v>3269415253.740775</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2109319989728047</v>
+        <v>0.1918921327250921</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02970386822268598</v>
+        <v>0.03259494036822429</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>39</v>
+      </c>
+      <c r="J55" t="n">
+        <v>85</v>
+      </c>
+      <c r="K55" t="n">
+        <v>125.0017965103738</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1211650385.840472</v>
+        <v>1232506074.0303</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1255313834405779</v>
+        <v>0.0991633312633461</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04805598408992479</v>
+        <v>0.05565147763143044</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3741978791.886343</v>
+        <v>3932267759.172301</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1450685071401462</v>
+        <v>0.1537628729925967</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02679574681066284</v>
+        <v>0.02662273712134506</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>85</v>
+      </c>
+      <c r="K57" t="n">
+        <v>167.1405870206204</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1437458609.855808</v>
+        <v>1299424173.482718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.202678252977908</v>
+        <v>0.1260108764987754</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02419534990644762</v>
+        <v>0.03462316482072254</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5399312803.388315</v>
+        <v>4926162353.54253</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08294393241267485</v>
+        <v>0.1253644962623411</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03584434193032143</v>
+        <v>0.03754496551855861</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>42</v>
+      </c>
+      <c r="J59" t="n">
+        <v>85</v>
+      </c>
+      <c r="K59" t="n">
+        <v>157.5173215910619</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3050431184.514354</v>
+        <v>2861371109.825315</v>
       </c>
       <c r="F60" t="n">
-        <v>0.205146923955825</v>
+        <v>0.1790856248291135</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03317283239966371</v>
+        <v>0.03291471857403049</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>83</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3097719876.007473</v>
+        <v>2963079686.734994</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1742807476986516</v>
+        <v>0.1602296397187292</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02940693622847576</v>
+        <v>0.02025774439324651</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1570534330.771205</v>
+        <v>2037034457.596249</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1554012023182158</v>
+        <v>0.1452899205608917</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03376247795255647</v>
+        <v>0.0352953292541994</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4052316807.222178</v>
+        <v>4495934213.230756</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1070703737566034</v>
+        <v>0.09244499675434517</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03712398716128817</v>
+        <v>0.02956328237242474</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>42</v>
+      </c>
+      <c r="J63" t="n">
+        <v>86</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5411057013.256766</v>
+        <v>5267344040.189241</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1257140211290326</v>
+        <v>0.1373193018653208</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02822651426902401</v>
+        <v>0.03050241375375835</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>42</v>
+      </c>
+      <c r="J64" t="n">
+        <v>86</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5438935262.736614</v>
+        <v>3625396553.195211</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1467091017889177</v>
+        <v>0.1429400446155394</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0261117143605819</v>
+        <v>0.02412267144443606</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>69</v>
+      </c>
+      <c r="J65" t="n">
+        <v>85</v>
+      </c>
+      <c r="K65" t="n">
+        <v>174.3484402957683</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4682015235.191236</v>
+        <v>4980399059.140437</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100128582882856</v>
+        <v>0.09980764544398683</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05115197062585231</v>
+        <v>0.04304573070448121</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>42</v>
+      </c>
+      <c r="J66" t="n">
+        <v>86</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2406092523.057689</v>
+        <v>2812842152.696186</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08166709176937303</v>
+        <v>0.08304352819873963</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03953619546160739</v>
+        <v>0.04769244997325055</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5143922511.977462</v>
+        <v>4210916473.395616</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1537250678735707</v>
+        <v>0.1416615020920576</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04401360059572582</v>
+        <v>0.03882942365532183</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>43</v>
+      </c>
+      <c r="J68" t="n">
+        <v>85</v>
+      </c>
+      <c r="K68" t="n">
+        <v>166.3395614814615</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1946775295.810525</v>
+        <v>1499530786.449054</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1472095560320497</v>
+        <v>0.1656440624638475</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03726012624424269</v>
+        <v>0.05525235534744703</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3341602167.727639</v>
+        <v>3052761038.313456</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07659123971283401</v>
+        <v>0.06743866609522919</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03661195724850422</v>
+        <v>0.04677338510153273</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5442145415.547654</v>
+        <v>3959337240.697457</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1301466201955844</v>
+        <v>0.1528523013575828</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03068248463324412</v>
+        <v>0.02964880525824428</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>71</v>
+      </c>
+      <c r="J71" t="n">
+        <v>86</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1701646437.701284</v>
+        <v>1556687908.144867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1042347395841352</v>
+        <v>0.0729094073333874</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04879449685651447</v>
+        <v>0.04801558731865063</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2389283345.755623</v>
+        <v>2200159950.129616</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09771714480617838</v>
+        <v>0.07843369742626968</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04547962631327181</v>
+        <v>0.03861035617877013</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2586430059.614916</v>
+        <v>3285491268.00408</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1247501352184882</v>
+        <v>0.1224509274312868</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03142516836065945</v>
+        <v>0.02784591114699889</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26</v>
+      </c>
+      <c r="J74" t="n">
+        <v>86</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2078703717.321756</v>
+        <v>1730501050.557805</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1498404251707337</v>
+        <v>0.1338280724566668</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02337910412933267</v>
+        <v>0.03276012922209</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5007085559.589084</v>
+        <v>4588961232.152565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1049231305174507</v>
+        <v>0.09621986105403046</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02227786881257612</v>
+        <v>0.03051055124606027</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>39</v>
+      </c>
+      <c r="J76" t="n">
+        <v>86</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1775319913.617825</v>
+        <v>1542434521.537387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805267514469705</v>
+        <v>0.1814805955632467</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02775862045455713</v>
+        <v>0.02683954897796941</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4543798277.765547</v>
+        <v>3565318911.361073</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1054620963194969</v>
+        <v>0.08450083617742245</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04177834812088184</v>
+        <v>0.05730134081459493</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>40</v>
+      </c>
+      <c r="J78" t="n">
+        <v>86</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1615062034.457726</v>
+        <v>1687352084.411271</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1439415424476322</v>
+        <v>0.166377758075506</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03233948810062056</v>
+        <v>0.03999164732388304</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4348229994.010764</v>
+        <v>4209933324.167865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.100712931495263</v>
+        <v>0.09169649080073382</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02521663417046816</v>
+        <v>0.03750227360133148</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>41</v>
+      </c>
+      <c r="J80" t="n">
+        <v>85</v>
+      </c>
+      <c r="K80" t="n">
+        <v>135.5701748539542</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4784690052.195867</v>
+        <v>3163836986.564719</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08275390198167246</v>
+        <v>0.1179156334026467</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0209884529579155</v>
+        <v>0.02967766423645696</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>39</v>
+      </c>
+      <c r="J81" t="n">
+        <v>85</v>
+      </c>
+      <c r="K81" t="n">
+        <v>107.2627226128831</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4818200880.362955</v>
+        <v>3582450457.20955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.145477953005629</v>
+        <v>0.1743427104697873</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02191447514917875</v>
+        <v>0.02896702034551901</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>55</v>
+      </c>
+      <c r="J82" t="n">
+        <v>85</v>
+      </c>
+      <c r="K82" t="n">
+        <v>175.9964973253789</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1908308058.874792</v>
+        <v>1883031490.17663</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1134499365482211</v>
+        <v>0.1381065421346769</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03273095368832707</v>
+        <v>0.03277220223973508</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2414393678.199243</v>
+        <v>2394704965.524399</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026255865335056</v>
+        <v>0.1134133990408895</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03873687708420583</v>
+        <v>0.04560137797819143</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3018089685.189647</v>
+        <v>2376012507.775215</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1693185552655138</v>
+        <v>0.1732959129884467</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0497890323776355</v>
+        <v>0.04829062996380035</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2270434463.577614</v>
+        <v>2143573874.470971</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1393741771480329</v>
+        <v>0.1305987138109469</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01720437282398681</v>
+        <v>0.02104372171469145</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1462588684.532047</v>
+        <v>979732077.1726369</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1543022504427624</v>
+        <v>0.1411763248654207</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04419202729753154</v>
+        <v>0.03320422327830156</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3400677192.330748</v>
+        <v>3702500742.255002</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1472457539497655</v>
+        <v>0.129943308557412</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02989874949483805</v>
+        <v>0.0320443125808679</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="n">
+        <v>185.1123532429776</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2660539176.248205</v>
+        <v>2760090857.341464</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1486804369032567</v>
+        <v>0.1467592373437321</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03340330299560861</v>
+        <v>0.02977306475463888</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1734993287.361495</v>
+        <v>2165021362.144983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08388349989022197</v>
+        <v>0.1373371814418864</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04787914933801081</v>
+        <v>0.05071281779889728</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1945812904.904181</v>
+        <v>1945068215.257585</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1949108720038983</v>
+        <v>0.1408523842562959</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04650029316085703</v>
+        <v>0.03858717120686969</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2437625764.889233</v>
+        <v>2292747309.466998</v>
       </c>
       <c r="F92" t="n">
-        <v>0.102073171062556</v>
+        <v>0.08740715868184255</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03208445411539642</v>
+        <v>0.04558125925888645</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3564795596.794521</v>
+        <v>3484933972.364301</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0942471220534002</v>
+        <v>0.1021028379510428</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05289223774202992</v>
+        <v>0.04465938297430175</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>39</v>
+      </c>
+      <c r="J93" t="n">
+        <v>85</v>
+      </c>
+      <c r="K93" t="n">
+        <v>146.268516916127</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2380623230.768418</v>
+        <v>1616501968.025121</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1195489517305017</v>
+        <v>0.1102336974915786</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03224679529548184</v>
+        <v>0.02975232147347578</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2803357264.663912</v>
+        <v>2312152648.393016</v>
       </c>
       <c r="F95" t="n">
-        <v>0.117609599509849</v>
+        <v>0.1210957529037592</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03331313895805215</v>
+        <v>0.03633487944979486</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1557693547.400103</v>
+        <v>2237484893.299538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1353544261900905</v>
+        <v>0.1073450272712457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04170978691952582</v>
+        <v>0.02850357947050277</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3874215231.768703</v>
+        <v>4656652657.405578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1388686864502635</v>
+        <v>0.129525541129294</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02125913606093627</v>
+        <v>0.02546983769081492</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>41</v>
+      </c>
+      <c r="J97" t="n">
+        <v>85</v>
+      </c>
+      <c r="K97" t="n">
+        <v>171.0435773917427</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3464442414.384519</v>
+        <v>3740442410.356469</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1101099652709016</v>
+        <v>0.1216735722101459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02726399537101338</v>
+        <v>0.02955145784999945</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>18</v>
+      </c>
+      <c r="J98" t="n">
+        <v>86</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3408149198.027964</v>
+        <v>2707773930.527033</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1051997003226513</v>
+        <v>0.1279956762386689</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02384215521300765</v>
+        <v>0.02467129088908622</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3892690731.516889</v>
+        <v>3978331409.398241</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1364582701474827</v>
+        <v>0.1298383606598981</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02085559610530472</v>
+        <v>0.02765627433957281</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>86</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2784690928.039066</v>
+        <v>2971460758.115438</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2093858276651921</v>
+        <v>0.154147925557664</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0389411333574144</v>
+        <v>0.03978679665538593</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
